--- a/Dados_VIVA3.xlsx
+++ b/Dados_VIVA3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicadagavea-my.sharepoint.com/personal/sofia_heisler_vivsaude_com_br/Documents/TCC SOFIA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="266" documentId="8_{B1A79B50-4BF3-4540-B8E6-4482084FB523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5E93419-5BCD-4C0A-9BF4-E9D6325E3B55}"/>
+  <xr:revisionPtr revIDLastSave="324" documentId="8_{B1A79B50-4BF3-4540-B8E6-4482084FB523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8C729A9-0E3B-40FB-BA5D-2187ABF396CD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{2257CE08-CE92-409E-9F47-D262134BADA7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{2257CE08-CE92-409E-9F47-D262134BADA7}"/>
   </bookViews>
   <sheets>
     <sheet name="BP_VIVA3" sheetId="2" r:id="rId1"/>
@@ -88,11 +88,22 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={E185EC40-4787-4E1F-AE43-227A6682F1A7}</author>
     <author>tc={A287ADD2-418F-4328-9C3D-164EA5824DA7}</author>
     <author>tc={19968543-96E7-41AE-B447-D71BCDBE9FB9}</author>
+    <author>tc={0B35241F-FA57-41D3-8856-35984CA77DD9}</author>
+    <author>tc={4A6DCCD8-D6C7-4F40-ADAC-B1028FC27221}</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{A287ADD2-418F-4328-9C3D-164EA5824DA7}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E185EC40-4787-4E1F-AE43-227A6682F1A7}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Fonte: BOLETIM FOCUS</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{A287ADD2-418F-4328-9C3D-164EA5824DA7}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -100,7 +111,7 @@
     Fonte: banco central</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{19968543-96E7-41AE-B447-D71BCDBE9FB9}">
+    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{19968543-96E7-41AE-B447-D71BCDBE9FB9}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -108,12 +119,28 @@
     acumulado</t>
       </text>
     </comment>
+    <comment ref="F1" authorId="3" shapeId="0" xr:uid="{0B35241F-FA57-41D3-8856-35984CA77DD9}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Fonte: B3</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="4" shapeId="0" xr:uid="{4A6DCCD8-D6C7-4F40-ADAC-B1028FC27221}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Último boletim focus de cada ano</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="96">
   <si>
     <t>Ano</t>
   </si>
@@ -127,12 +154,6 @@
     <t>IPCA</t>
   </si>
   <si>
-    <t>ERP</t>
-  </si>
-  <si>
-    <t>PIB LP</t>
-  </si>
-  <si>
     <t>Centro-Oeste</t>
   </si>
   <si>
@@ -398,6 +419,15 @@
   </si>
   <si>
     <t>93.368.726 (39,55%)</t>
+  </si>
+  <si>
+    <t>IBOV</t>
+  </si>
+  <si>
+    <t>Prêmio de Rsico</t>
+  </si>
+  <si>
+    <t>PIB Expectativa</t>
   </si>
 </sst>
 </file>
@@ -409,7 +439,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,24 +458,19 @@
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF0015AA"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -537,7 +562,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -558,39 +583,36 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1179,11 +1201,20 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2025-04-18T22:21:20.53" personId="{D8191FFE-1D62-4EA7-829B-8544500A72DE}" id="{E185EC40-4787-4E1F-AE43-227A6682F1A7}">
+    <text>Fonte: BOLETIM FOCUS</text>
+  </threadedComment>
   <threadedComment ref="B1" dT="2025-04-17T01:10:16.66" personId="{D8191FFE-1D62-4EA7-829B-8544500A72DE}" id="{A287ADD2-418F-4328-9C3D-164EA5824DA7}">
     <text>Fonte: banco central</text>
   </threadedComment>
   <threadedComment ref="C1" dT="2025-04-17T01:18:28.63" personId="{D8191FFE-1D62-4EA7-829B-8544500A72DE}" id="{19968543-96E7-41AE-B447-D71BCDBE9FB9}">
     <text>acumulado</text>
+  </threadedComment>
+  <threadedComment ref="F1" dT="2025-04-18T21:57:24.60" personId="{D8191FFE-1D62-4EA7-829B-8544500A72DE}" id="{0B35241F-FA57-41D3-8856-35984CA77DD9}">
+    <text>Fonte: B3</text>
+  </threadedComment>
+  <threadedComment ref="G1" dT="2025-04-18T22:36:28.22" personId="{D8191FFE-1D62-4EA7-829B-8544500A72DE}" id="{4A6DCCD8-D6C7-4F40-ADAC-B1028FC27221}">
+    <text>Último boletim focus de cada ano</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1379,122 +1410,122 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="N1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>30</v>
-      </c>
-      <c r="R1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2016</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="15">
         <v>759478</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="14">
         <v>120690</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="14">
         <v>511311</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="14">
         <v>115630</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="14">
         <v>253227</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="14">
         <v>39833</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="14">
         <v>54814</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="14">
         <f>B2+C2-H2-D2-G2</f>
         <v>274210</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="14">
         <v>76944</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="14">
         <v>333191</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="14">
         <v>80231</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M2" s="16">
         <f>K2+L2</f>
         <v>413422</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="16">
         <f>M2-H2</f>
         <v>358608</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="16">
         <f>AVERAGE(M1:M2)</f>
         <v>413422</v>
       </c>
-      <c r="P2" s="19">
+      <c r="P2" s="17">
         <f>J2/O2</f>
         <v>0.18611491405875835</v>
       </c>
-      <c r="Q2" s="16">
+      <c r="Q2" s="14">
         <v>680941</v>
       </c>
-      <c r="R2" s="16">
+      <c r="R2" s="14">
         <v>148738</v>
       </c>
-      <c r="S2" s="18">
+      <c r="S2" s="16">
         <f>(Q2)-(R2)</f>
         <v>532203</v>
       </c>
@@ -1503,63 +1534,63 @@
       <c r="A3">
         <v>2017</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>625444</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>244748</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="14">
         <v>313330</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="14">
         <v>231788</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="14">
         <v>325074</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="14">
         <v>53721</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="14">
         <v>124758</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="14">
         <f t="shared" ref="I3:I10" si="0">B3+C3-H3-D3-G3</f>
         <v>378383</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="14">
         <v>58520</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="14">
         <v>97827</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="14">
         <v>196253</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="16">
         <f t="shared" ref="M3:M10" si="1">K3+L3</f>
         <v>294080</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="16">
         <f t="shared" ref="N3:N10" si="2">M3-H3</f>
         <v>169322</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="16">
         <f t="shared" ref="O3:O10" si="3">AVERAGE(M2:M3)</f>
         <v>353751</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="17">
         <f t="shared" ref="P3:P10" si="4">J3/O3</f>
         <v>0.16542709419902699</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="Q3" s="14">
         <v>500686</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="14">
         <v>186498</v>
       </c>
-      <c r="S3" s="18">
+      <c r="S3" s="16">
         <f>(Q3-Q2)-(R3-R2)</f>
         <v>-218015</v>
       </c>
@@ -1568,63 +1599,63 @@
       <c r="A4">
         <v>2018</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="15">
         <v>725299.94767000002</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>164346.69037999999</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <v>316509.19076000008</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>122121.52381999999</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="14">
         <v>451015.9234565497</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="14">
         <v>46203.726439999999</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="14">
         <v>84781</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="14">
         <f t="shared" si="0"/>
         <v>442152.72084999987</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="14">
         <v>41147.648089999995</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="14">
         <v>115891.83705000002</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="14">
         <v>99553.217709999997</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="16">
         <f t="shared" si="1"/>
         <v>215445.05476000003</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="16">
         <f t="shared" si="2"/>
         <v>130664.05476000003</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="16">
         <f t="shared" si="3"/>
         <v>254762.52738000001</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="17">
         <f t="shared" si="4"/>
         <v>0.16151373796282359</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="14">
         <v>635721.05492999998</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="14">
         <v>186819.10715000003</v>
       </c>
-      <c r="S4" s="18">
+      <c r="S4" s="16">
         <f t="shared" ref="S4:S10" si="5">(Q4-Q3)-(R4-R3)</f>
         <v>134713.94777999996</v>
       </c>
@@ -1633,63 +1664,63 @@
       <c r="A5">
         <v>2019</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>1319424.9124799999</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>560104.00152634992</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <v>458812.99265999999</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>330991.58668999997</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="14">
         <v>1089724.33565</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="14">
         <v>36421.391530000001</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="14">
         <v>435844.35029999999</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="14">
         <f t="shared" si="0"/>
         <v>948450.1795163498</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="14">
         <v>63414.376029999992</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="14">
         <v>190934.03497000004</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="14">
         <v>79419.832049999997</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="16">
         <f t="shared" si="1"/>
         <v>270353.86702000001</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="16">
         <f>M5-H5</f>
         <v>-165490.48327999999</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="16">
         <f t="shared" si="3"/>
         <v>242899.46089000002</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="17">
         <f t="shared" si="4"/>
         <v>0.26107252687035798</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="14">
         <v>876784.32589000009</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5" s="14">
         <v>220692.5949</v>
       </c>
-      <c r="S5" s="18">
+      <c r="S5" s="16">
         <f t="shared" si="5"/>
         <v>207189.78321000014</v>
       </c>
@@ -1698,63 +1729,63 @@
       <c r="A6">
         <v>2020</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <v>1428554.3036376894</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>712142.41304619994</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <v>589042.90935999993</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>380177.99387999997</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="14">
         <v>1171475.8134438896</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="14">
         <v>53198.184370000003</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="14">
         <v>477319.37946999999</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="14">
         <f>B6+C6-H6-D6-G6</f>
         <v>1021136.2434838893</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="14">
         <v>57561.348109999999</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="14">
         <v>277820.62114999996</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="14">
         <v>112500</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="16">
         <f t="shared" si="1"/>
         <v>390320.62114999996</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="16">
         <f t="shared" si="2"/>
         <v>-86998.758320000023</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="16">
         <f t="shared" si="3"/>
         <v>330337.24408500001</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="17">
         <f t="shared" si="4"/>
         <v>0.17425025225187363</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="14">
         <v>879742.64190768951</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="14">
         <v>226065.35207000002</v>
       </c>
-      <c r="S6" s="18">
+      <c r="S6" s="16">
         <f>(Q6-Q5)-(R6-R5)</f>
         <v>-2414.4411523106101</v>
       </c>
@@ -1763,63 +1794,63 @@
       <c r="A7">
         <v>2021</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="18">
         <v>1583219.7838774098</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>980649.05041749519</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <v>674295.86711999995</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>496841.60351999995</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <v>1392731.3636549052</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="14">
         <v>88207.200519999999</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="14">
         <v>325587.60056999995</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="14">
         <f t="shared" si="0"/>
         <v>1475778.1660849052</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="14">
         <v>62781.077029999993</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="14">
         <v>127176.04281</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="14">
         <v>164036.72818000001</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="16">
         <f t="shared" si="1"/>
         <v>291212.77098999999</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="16">
         <f t="shared" si="2"/>
         <v>-34374.829579999961</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="16">
         <f t="shared" si="3"/>
         <v>340766.69606999995</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="17">
         <f t="shared" si="4"/>
         <v>0.184234779261127</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="14">
         <v>1114766.3788274098</v>
       </c>
-      <c r="R7" s="16">
+      <c r="R7" s="14">
         <v>399166.93424999999</v>
       </c>
-      <c r="S7" s="18">
+      <c r="S7" s="16">
         <f t="shared" si="5"/>
         <v>61922.154739720339</v>
       </c>
@@ -1828,63 +1859,63 @@
       <c r="A8">
         <v>2022</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>1761018.5953006025</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>1171155</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <v>726254.97349999996</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>547967</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="14">
         <v>1657952</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="14">
         <v>104961</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="14">
         <v>160035.97900999998</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="14">
         <f t="shared" si="0"/>
         <v>1940921.642790603</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="14">
         <v>85348.590389999998</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="14">
         <v>116970</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="14">
         <v>108186</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="16">
         <f t="shared" si="1"/>
         <v>225156</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="16">
         <f t="shared" si="2"/>
         <v>65120.020990000019</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O8" s="16">
         <f t="shared" si="3"/>
         <v>258184.38549499999</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="17">
         <f t="shared" si="4"/>
         <v>0.33057223900805133</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="14">
         <v>1445843.3981006027</v>
       </c>
-      <c r="R8" s="16">
+      <c r="R8" s="14">
         <v>443595</v>
       </c>
-      <c r="S8" s="18">
+      <c r="S8" s="16">
         <f t="shared" si="5"/>
         <v>286648.95352319285</v>
       </c>
@@ -1893,63 +1924,63 @@
       <c r="A9">
         <v>2023</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="19">
         <v>2056580.1240014909</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>1256818.33708181</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="14">
         <v>695587.86028000014</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>612280.81429999997</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="14">
         <v>2005529.486503276</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="14">
         <v>142182.92440999998</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="14">
         <v>221495.20791</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="14">
         <f t="shared" si="0"/>
         <v>2254132.4684833009</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="14">
         <v>90720.475129999977</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="14">
         <v>111463.43515999999</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="14">
         <v>160000.00048000002</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="16">
         <f t="shared" si="1"/>
         <v>271463.43564000004</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="16">
         <f t="shared" si="2"/>
         <v>49968.227730000042</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="16">
         <f t="shared" si="3"/>
         <v>248309.71782000002</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P9" s="17">
         <f t="shared" si="4"/>
         <v>0.36535209304922711</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="14">
         <v>1752090.390131491</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R9" s="14">
         <v>401485.96192000009</v>
       </c>
-      <c r="S9" s="18">
+      <c r="S9" s="16">
         <f t="shared" si="5"/>
         <v>348356.03011088824</v>
       </c>
@@ -1958,63 +1989,63 @@
       <c r="A10">
         <v>2024</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>2781888.1219999995</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>1491841.58886</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="14">
         <v>995686.87383000006</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>781100.64931000001</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="14">
         <v>2496941.9876778787</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="14">
         <v>158735.78572000007</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="14">
         <v>278153</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="14">
         <f t="shared" si="0"/>
         <v>2841154.0513099991</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="14">
         <v>100152.68900414801</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="14">
         <v>113369.65276000001</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="14">
         <v>285191.05127999996</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="16">
         <f t="shared" si="1"/>
         <v>398560.70403999998</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="16">
         <f t="shared" si="2"/>
         <v>120407.70403999998</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O10" s="16">
         <f t="shared" si="3"/>
         <v>335012.06984000001</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="17">
         <f t="shared" si="4"/>
         <v>0.29895247968821065</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10" s="14">
         <v>2499205.0579299997</v>
       </c>
-      <c r="R10" s="16">
+      <c r="R10" s="14">
         <v>624126.87968000025</v>
       </c>
-      <c r="S10" s="18">
+      <c r="S10" s="16">
         <f t="shared" si="5"/>
         <v>524473.75003850856</v>
       </c>
@@ -2062,53 +2093,53 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>33</v>
+      <c r="B1" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>41</v>
       </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
       <c r="Q1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="2"/>
@@ -2121,52 +2152,52 @@
       <c r="A2">
         <v>2016</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="14">
         <v>953070</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="14">
         <v>316594</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="21">
         <v>636476</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="21">
         <v>441338</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="21">
         <v>18029</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="21">
         <v>423309</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="14">
         <v>427</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="14">
         <v>-59987</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="14">
         <v>213167</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="14">
         <v>213167</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="14">
         <v>135151</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="14">
         <v>76944</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="16">
         <v>58207</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="14">
         <v>33779</v>
       </c>
-      <c r="P2" s="19">
+      <c r="P2" s="17">
         <v>0.58032539041696019</v>
       </c>
-      <c r="Q2" s="16">
+      <c r="Q2" s="14">
         <v>101372</v>
       </c>
       <c r="R2" s="3"/>
@@ -2180,52 +2211,52 @@
       <c r="A3">
         <v>2017</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>996846</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>334653</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="21">
         <v>662193</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="21">
         <v>459118</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="21">
         <v>17287</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="21">
         <v>441831</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="14">
         <v>451</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="14">
         <v>-32220</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="14">
         <v>220362</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="14">
         <v>220362</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="14">
         <v>170855</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="14">
         <v>58520</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="16">
         <v>112335</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="14">
         <v>-55030</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="17">
         <v>-0.48987403747718877</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="Q3" s="14">
         <v>225885</v>
       </c>
       <c r="R3" s="3"/>
@@ -2239,52 +2270,52 @@
       <c r="A4">
         <v>2018</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="14">
         <v>1059585.7035248748</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>313537.97279342503</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="21">
         <v>746047.73073144979</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="21">
         <v>488538.67365217418</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="21">
         <v>15203.147000000001</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="21">
         <v>473335.52665217419</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="14">
         <v>463.91410999999999</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="14">
         <v>-36074.078769999993</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="14">
         <v>272712.2040792756</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="14">
         <v>244965.2040792756</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="14">
         <v>221434.97830927561</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="14">
         <v>41147.648089999995</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="16">
         <v>180287.33021927561</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="14">
         <v>22999.632180000004</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="17">
         <v>0.12757209367971978</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="14">
         <v>198435.3461292756</v>
       </c>
       <c r="R4" s="3"/>
@@ -2298,52 +2329,52 @@
       <c r="A5">
         <v>2019</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>1171359.9744299995</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>373614.88997999992</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="21">
         <v>797745.0844499995</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="21">
         <v>436119.23289999971</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="21">
         <v>45495.271759999989</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="21">
         <v>390623.96113999974</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="14">
         <v>247.34808999997378</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="14">
         <v>-2460.7884999999878</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="14">
         <v>408570.10030999978</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="14">
         <v>272134.18099999975</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="14">
         <v>359165.06304999982</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="14">
         <v>63414.376029999992</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="16">
         <v>295750.68701999984</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="14">
         <v>40914.28505364999</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="17">
         <v>0.13834045650376867</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="14">
         <v>318250.77799634985</v>
       </c>
       <c r="R5" s="3"/>
@@ -2357,52 +2388,52 @@
       <c r="A6">
         <v>2020</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>1047547.0411099999</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>330064.05053342163</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="21">
         <v>717482.9905765783</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="21">
         <v>512404.35496888915</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="21">
         <v>55748.821930000006</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="21">
         <v>456655.53303888917</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="14">
         <v>0</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="14">
         <v>-41541.898869999997</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="14">
         <v>263351.38050768914</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="14">
         <v>216319.04710905149</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="14">
         <v>163536.73673768915</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="14">
         <v>57561.348109999999</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="16">
         <v>105975.38862768916</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="14">
         <v>16864.628073583328</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="17">
         <v>0.1591372137622617</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="14">
         <v>146672.10866410582</v>
       </c>
       <c r="R6" s="3"/>
@@ -2416,52 +2447,52 @@
       <c r="A7">
         <v>2021</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>1466386.8845899992</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>474909.08283880563</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="21">
         <v>991477.80175119359</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="21">
         <v>696790.59337999916</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="21">
         <v>68597.849789999993</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="21">
         <v>628192.74358999915</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="14">
         <v>0</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="14">
         <v>-31509.470129999994</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="14">
         <v>366516.22687119403</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="14">
         <v>301389.62687119405</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="14">
         <v>263176.73824119405</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="14">
         <v>62781.077029999993</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="16">
         <v>200395.66121119406</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="14">
         <v>-35313.289651295076</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="17">
         <v>-0.17621783544544367</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="14">
         <v>298490.0278924891</v>
       </c>
       <c r="R7" s="3"/>
@@ -2475,52 +2506,52 @@
       <c r="A8">
         <v>2022</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>1843735.0886799998</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>573527.51996140229</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="21">
         <v>1270207.5687185975</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="21">
         <v>893835.24021541304</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="21">
         <v>108323.36996000011</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="21">
         <v>785511.87025541288</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="14">
         <v>0</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="14">
         <v>-45337.728109999989</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="14">
         <v>490298.22054318455</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="14">
         <v>401081.76174318453</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="14">
         <v>331034.60039318446</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="14">
         <v>85348.590389999998</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="16">
         <v>245686.01000318446</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="14">
         <v>-29819.817152514519</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="17">
         <v>-0.12137368811568884</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="14">
         <v>360854.41754569899</v>
       </c>
       <c r="R8" s="3"/>
@@ -2534,52 +2565,52 @@
       <c r="A9">
         <v>2023</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>2186974.7092700005</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>670864.00722299516</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="21">
         <v>1516110.7020470053</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="21">
         <v>1065464.5932761412</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="21">
         <v>127144.97667000044</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="21">
         <v>938319.61660614074</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="14">
         <v>0</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="14">
         <v>-49803.506469999964</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="14">
         <v>584731.03064086451</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="14">
         <v>479597.80002086452</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="14">
         <v>400842.60230086412</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="14">
         <v>90720.475129999977</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="16">
         <v>310122.12717086414</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="14">
         <v>19722</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P9" s="17">
         <v>6.3594301315797477E-2</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="14">
         <v>381120.60230086412</v>
       </c>
       <c r="R9" s="3"/>
@@ -2593,52 +2624,52 @@
       <c r="A10">
         <v>2024</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>2577113.117360001</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>767086.65745171998</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="21">
         <v>1810026.459908281</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="21">
         <v>1126440.627015108</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="21">
         <v>144301.7680311109</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="21">
         <v>982138.85898399714</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="14">
         <v>0</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="14">
         <v>-57347.15002414801</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="14">
         <v>833228.11129428365</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="14">
         <v>657533.37552682951</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="14">
         <v>626238.68286902481</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="14">
         <v>100152.68900414801</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="16">
         <v>526085.9938648768</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="14">
         <v>-27155.162080502712</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="17">
         <v>-5.1617344687335302E-2</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10" s="14">
         <v>653393.84494952741</v>
       </c>
       <c r="R10" s="3"/>
@@ -2649,12 +2680,12 @@
       <c r="W10" s="3"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E11" s="24"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E12" s="5"/>
-      <c r="F12" s="24"/>
-      <c r="P12" s="25"/>
+      <c r="F12" s="21"/>
+      <c r="P12" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2707,168 +2738,168 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
         <v>57</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>58</v>
       </c>
-      <c r="K1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T1" t="s">
-        <v>61</v>
-      </c>
-      <c r="U1" t="s">
-        <v>62</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>64</v>
       </c>
-      <c r="W1" t="s">
-        <v>68</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>65</v>
       </c>
-      <c r="Y1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>67</v>
       </c>
-      <c r="AA1" t="s">
-        <v>69</v>
-      </c>
       <c r="AB1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2016</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="14">
         <v>92213</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="14">
         <v>54814</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="14">
         <v>207983</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="14">
         <v>18029</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="14">
         <v>191233</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="14">
         <v>-24702</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="14">
         <v>-23735</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="14">
         <v>0</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="14">
         <v>142796</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="14">
         <v>-23834</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="14">
         <v>36880</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="14">
         <v>-12347</v>
       </c>
-      <c r="N2" s="16">
+      <c r="N2" s="14">
         <v>-3123</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="14">
         <v>-14922</v>
       </c>
-      <c r="P2" s="16">
+      <c r="P2" s="14">
         <v>-11835.514320000006</v>
       </c>
-      <c r="Q2" s="16">
+      <c r="Q2" s="14">
         <v>11775.948870000006</v>
       </c>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16">
+      <c r="R2" s="14"/>
+      <c r="S2" s="14">
         <v>-4433</v>
       </c>
-      <c r="T2" s="16">
+      <c r="T2" s="14">
         <v>-7342.9488700000056</v>
       </c>
-      <c r="U2" s="16">
+      <c r="U2" s="14">
         <v>-59.565449999999949</v>
       </c>
-      <c r="V2" s="16">
+      <c r="V2" s="14">
         <v>-57253</v>
       </c>
-      <c r="W2" s="16">
+      <c r="W2" s="14">
         <v>-168359</v>
       </c>
-      <c r="X2" s="16">
+      <c r="X2" s="14">
         <v>-119190</v>
       </c>
-      <c r="Y2" s="16">
+      <c r="Y2" s="14">
         <v>0</v>
       </c>
-      <c r="Z2" s="16">
+      <c r="Z2" s="14">
         <v>7084</v>
       </c>
-      <c r="AA2" s="16">
+      <c r="AA2" s="14">
         <v>-37398.514320000002</v>
       </c>
-      <c r="AB2" s="16">
+      <c r="AB2" s="14">
         <v>37399</v>
       </c>
     </row>
@@ -2876,83 +2907,83 @@
       <c r="A3">
         <v>2017</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>54814</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>124758</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="14">
         <v>210439</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="14">
         <v>17287</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="14">
         <v>385880.58049346606</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="14">
         <v>-24471.280499999997</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="14">
         <v>-22814.111318447009</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="14">
         <v>0</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="14">
         <v>338595.18867501908</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="14">
         <v>38745.140800000008</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="14">
         <v>13888.965229999996</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="14">
         <v>-79468.079336533905</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="14">
         <v>68411.67889000001</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="14">
         <v>-524.12811000000079</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="14">
         <v>-6914.6537900000112</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="Q3" s="14">
         <v>6867.4639500000112</v>
       </c>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16">
+      <c r="R3" s="14"/>
+      <c r="S3" s="14">
         <v>-6214.5320300000094</v>
       </c>
-      <c r="T3" s="16">
+      <c r="T3" s="14">
         <v>-652.93192000000204</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="14">
         <v>-47.189839999999968</v>
       </c>
-      <c r="V3" s="16">
+      <c r="V3" s="14">
         <v>-149881.65568999999</v>
       </c>
-      <c r="W3" s="16">
+      <c r="W3" s="14">
         <v>-261736.33312155301</v>
       </c>
-      <c r="X3" s="16">
+      <c r="X3" s="14">
         <v>-111854.67743155301</v>
       </c>
-      <c r="Y3" s="16">
+      <c r="Y3" s="14">
         <v>0</v>
       </c>
-      <c r="Z3" s="16">
+      <c r="Z3" s="14">
         <v>0</v>
       </c>
-      <c r="AA3" s="16">
+      <c r="AA3" s="14">
         <v>69944.201763466059</v>
       </c>
-      <c r="AB3" s="16">
+      <c r="AB3" s="14">
         <v>-69944</v>
       </c>
     </row>
@@ -2960,83 +2991,83 @@
       <c r="A4">
         <v>2018</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="14">
         <v>124758</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>84781</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <v>254622.85764941934</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>15203.147000000001</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="14">
         <v>189659.49597846554</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="14">
         <v>-15109.25676</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="14">
         <v>-18810.454539999999</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="14">
         <v>0</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="14">
         <v>155739.78467846554</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="14">
         <v>-77896.810951477557</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="14">
         <v>-7519.2063599999992</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="14">
         <v>54348.91962052376</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="14">
         <v>-17169</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="14">
         <v>18727.039170000007</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="14">
         <v>-11165.56582</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="14">
         <v>13248.82646</v>
       </c>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16">
+      <c r="R4" s="14"/>
+      <c r="S4" s="14">
         <v>-12707.22064</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="14">
         <v>-541.60581999999999</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="14">
         <v>2083.2606399999995</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="14">
         <v>-81341.570219999994</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="14">
         <v>-184551.50652999996</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="14">
         <v>-104195.88187999997</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="14">
         <v>0</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="14">
         <v>985.94557000000032</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="14">
         <v>-39977.287671534403</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="14">
         <v>39977</v>
       </c>
     </row>
@@ -3044,83 +3075,83 @@
       <c r="A5">
         <v>2019</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>84780.507180000001</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>435844.35029999999</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <v>283730.38560999924</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>45495.271759999989</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="14">
         <v>110910.45563999916</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="14">
         <v>-48822.666990000005</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="14">
         <v>-17559.750939999998</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="14">
         <v>0</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="14">
         <v>44528.037709999153</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="14">
         <v>1653.646729999969</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="14">
         <v>-9848.1738299999979</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="14">
         <v>-12225.595959999979</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="14">
         <v>14170.345379999995</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="14">
         <v>45347.772429999946</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="14">
         <v>-32429.710470000187</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="14">
         <v>46499.515540000262</v>
       </c>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16">
+      <c r="R5" s="14"/>
+      <c r="S5" s="14">
         <v>-40917.374290000262</v>
       </c>
-      <c r="T5" s="16">
+      <c r="T5" s="14">
         <v>-5582.1412499999997</v>
       </c>
-      <c r="U5" s="16">
+      <c r="U5" s="14">
         <v>14069.805070000073</v>
       </c>
-      <c r="V5" s="16">
+      <c r="V5" s="14">
         <v>-67417.614959999992</v>
       </c>
-      <c r="W5" s="16">
+      <c r="W5" s="14">
         <v>338965.51588000008</v>
       </c>
-      <c r="X5" s="16">
+      <c r="X5" s="14">
         <v>49447.286910000024</v>
       </c>
-      <c r="Y5" s="16">
+      <c r="Y5" s="14">
         <v>-47639.697219999995</v>
       </c>
-      <c r="Z5" s="16">
+      <c r="Z5" s="14">
         <v>4144.2771300000031</v>
       </c>
-      <c r="AA5" s="16">
+      <c r="AA5" s="14">
         <v>351063.84311999904</v>
       </c>
-      <c r="AB5" s="16">
+      <c r="AB5" s="14">
         <v>-351063.84311999998</v>
       </c>
     </row>
@@ -3128,83 +3159,83 @@
       <c r="A6">
         <v>2020</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>435844.35029999999</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>477319.37946999999</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <v>246293.68367107498</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>55748.821930000006</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="14">
         <v>296413.72372063866</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="14">
         <v>-17077.165779999999</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="14">
         <v>-9241.4372199999998</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="14">
         <v>-18001.733528637626</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="14">
         <v>252093.38719200104</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="14">
         <v>-18592.907477689449</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="14">
         <v>16776.792840000002</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="14">
         <v>38304.572830000019</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="14">
         <v>19352.526127253135</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="14">
         <v>-21425.903779999968</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="14">
         <v>-269312.97672000004</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="14">
         <v>44711.518199999991</v>
       </c>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16">
+      <c r="R6" s="14"/>
+      <c r="S6" s="14">
         <v>-39387.297539999985</v>
       </c>
-      <c r="T6" s="16">
+      <c r="T6" s="14">
         <v>-5324.22066</v>
       </c>
-      <c r="U6" s="16">
+      <c r="U6" s="14">
         <v>-224601.45852000004</v>
       </c>
-      <c r="V6" s="16">
+      <c r="V6" s="14">
         <v>-35563.005629999992</v>
       </c>
-      <c r="W6" s="16">
+      <c r="W6" s="14">
         <v>58694.14344</v>
       </c>
-      <c r="X6" s="16">
+      <c r="X6" s="14">
         <v>85185.198709999997</v>
       </c>
-      <c r="Y6" s="16">
+      <c r="Y6" s="14">
         <v>-12540.049640000008</v>
       </c>
-      <c r="Z6" s="16">
+      <c r="Z6" s="14">
         <v>21612</v>
       </c>
-      <c r="AA6" s="16">
+      <c r="AA6" s="14">
         <v>41474.553912001007</v>
       </c>
-      <c r="AB6" s="16">
+      <c r="AB6" s="14">
         <v>-41475.029169999994</v>
       </c>
     </row>
@@ -3212,83 +3243,83 @@
       <c r="A7">
         <v>2021</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>477319.37946999999</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>325587.60056999995</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <v>388843.91935551859</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>68597.849789999993</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <v>305279.0056557983</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="14">
         <v>-38567.797680000003</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="14">
         <v>-13955.866920000002</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="14">
         <v>-32983.885789418506</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="14">
         <v>219771.45526637978</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="14">
         <v>-160163.19726972032</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="14">
         <v>104357.76027999999</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="14">
         <v>15786.837440000005</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="14">
         <v>50708.07598999999</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="14">
         <v>27541.614739999994</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="14">
         <v>-207588.68107500029</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="14">
         <v>104077.87056500028</v>
       </c>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16">
+      <c r="R7" s="14"/>
+      <c r="S7" s="14">
         <v>-80704.187745000279</v>
       </c>
-      <c r="T7" s="16">
+      <c r="T7" s="14">
         <v>-23373.682820000002</v>
       </c>
-      <c r="U7" s="16">
+      <c r="U7" s="14">
         <v>-103510.81051000001</v>
       </c>
-      <c r="V7" s="16">
+      <c r="V7" s="14">
         <v>-41650.637602491246</v>
       </c>
-      <c r="W7" s="16">
+      <c r="W7" s="14">
         <v>-163914.55367716728</v>
       </c>
-      <c r="X7" s="16">
+      <c r="X7" s="14">
         <v>-110819.23813</v>
       </c>
-      <c r="Y7" s="16">
+      <c r="Y7" s="14">
         <v>-29795.329154676019</v>
       </c>
-      <c r="Z7" s="16">
+      <c r="Z7" s="14">
         <v>18350.65121</v>
       </c>
-      <c r="AA7" s="16">
+      <c r="AA7" s="14">
         <v>-151731.77948578779</v>
       </c>
-      <c r="AB7" s="16">
+      <c r="AB7" s="14">
         <v>151731.77890000003</v>
       </c>
     </row>
@@ -3296,83 +3327,83 @@
       <c r="A8">
         <v>2022</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>325587.60056999995</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>160035.97900999998</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <v>526027.41754569905</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>108323.36996000011</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="14">
         <v>180117.82016250613</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="14">
         <v>-43439.348909999993</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="14">
         <v>-30555.343869999997</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="14">
         <v>-42814.72769</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="14">
         <v>63308.399692506136</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="14">
         <v>-182617.89519319308</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="14">
         <v>-12348.027259999975</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="14">
         <v>-33510</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="14">
         <v>-15456</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="14">
         <v>29638</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="14">
         <v>-32449.835727483762</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="14">
         <v>137731.1478274838</v>
       </c>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16">
+      <c r="R8" s="14"/>
+      <c r="S8" s="14">
         <v>-109006.1500574838</v>
       </c>
-      <c r="T8" s="16">
+      <c r="T8" s="14">
         <v>-28724.997769999994</v>
       </c>
-      <c r="U8" s="16">
+      <c r="U8" s="14">
         <v>105281.31210000004</v>
       </c>
-      <c r="V8" s="16">
+      <c r="V8" s="14">
         <v>-70889.304034634915</v>
       </c>
-      <c r="W8" s="16">
+      <c r="W8" s="14">
         <v>-196410.85624363492</v>
       </c>
-      <c r="X8" s="16">
+      <c r="X8" s="14">
         <v>-60343.414260000049</v>
       </c>
-      <c r="Y8" s="16">
+      <c r="Y8" s="14">
         <v>-45880.046778999982</v>
       </c>
-      <c r="Z8" s="16">
+      <c r="Z8" s="14">
         <v>-19298.091170000003</v>
       </c>
-      <c r="AA8" s="16">
+      <c r="AA8" s="14">
         <v>-165552.29227861256</v>
       </c>
-      <c r="AB8" s="16">
+      <c r="AB8" s="14">
         <v>165551.62155999997</v>
       </c>
     </row>
@@ -3380,85 +3411,85 @@
       <c r="A9">
         <v>2023</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>160035.97900999998</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>221495.20791</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="14">
         <v>605218</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>127144.97667000044</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="14">
         <v>322260.07969911169</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="14">
         <v>-43218.761719999995</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="14">
         <v>-24772.107049999999</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="14">
         <v>-52802.809539999987</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="14">
         <v>201466.40138911171</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="14">
         <v>-73547.655930888301</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="14">
         <v>-38340.004699999998</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="14">
         <v>15720.003330000001</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="14">
         <v>-38368.166220000036</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="14">
         <v>19252.997960000102</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="14">
         <v>-37804.396679999947</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="14">
         <v>178185.71894999995</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R9" s="14">
         <v>-11112.431979999999</v>
       </c>
-      <c r="S9" s="16">
+      <c r="S9" s="14">
         <v>-151578.71825999999</v>
       </c>
-      <c r="T9" s="16">
+      <c r="T9" s="14">
         <v>-26607.000689999972</v>
       </c>
-      <c r="U9" s="16">
+      <c r="U9" s="14">
         <v>151493.75425</v>
       </c>
-      <c r="V9" s="16">
+      <c r="V9" s="14">
         <v>-85700.50845137499</v>
       </c>
-      <c r="W9" s="16">
+      <c r="W9" s="14">
         <v>-102205.21655137543</v>
       </c>
-      <c r="X9" s="16">
+      <c r="X9" s="14">
         <v>47500</v>
       </c>
-      <c r="Y9" s="16">
+      <c r="Y9" s="14">
         <v>-58604.358830000434</v>
       </c>
-      <c r="Z9" s="16">
+      <c r="Z9" s="14">
         <v>-5400.3492699999997</v>
       </c>
-      <c r="AA9" s="16">
+      <c r="AA9" s="14">
         <v>61456.78815773633</v>
       </c>
-      <c r="AB9" s="16">
+      <c r="AB9" s="14">
         <v>-61459.228900000016</v>
       </c>
     </row>
@@ -3466,164 +3497,164 @@
       <c r="A10">
         <v>2024</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>221495</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>278153</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="14">
         <v>863969</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>144301.7680311109</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="14">
         <v>306841</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="14">
         <v>-72614</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="14">
         <v>-25111</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="14">
         <v>-58434</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="14">
         <v>150682</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="14">
         <v>-550632</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="14">
         <v>201168</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="14">
         <v>-48372</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="14">
         <v>-13700</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="14">
         <v>-21449</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="14">
         <v>-45154</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10" s="14">
         <v>129020</v>
       </c>
-      <c r="R10" s="16">
+      <c r="R10" s="14">
         <v>0</v>
       </c>
-      <c r="S10" s="16">
+      <c r="S10" s="14">
         <v>-107441</v>
       </c>
-      <c r="T10" s="16">
+      <c r="T10" s="14">
         <v>-21579</v>
       </c>
-      <c r="U10" s="16">
+      <c r="U10" s="14">
         <v>83866</v>
       </c>
-      <c r="V10" s="16">
+      <c r="V10" s="14">
         <v>-87693</v>
       </c>
-      <c r="W10" s="16">
+      <c r="W10" s="14">
         <v>-48870</v>
       </c>
-      <c r="X10" s="16">
+      <c r="X10" s="14">
         <v>115768</v>
       </c>
-      <c r="Y10" s="16">
+      <c r="Y10" s="14">
         <v>-64716</v>
       </c>
-      <c r="Z10" s="16">
+      <c r="Z10" s="14">
         <v>-12229</v>
       </c>
-      <c r="AA10" s="16">
+      <c r="AA10" s="14">
         <v>56658</v>
       </c>
-      <c r="AB10" s="16">
+      <c r="AB10" s="14">
         <v>-56658</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D24" s="5"/>
@@ -3637,7 +3668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FC6D65-57AB-4216-9786-986376818DD7}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -3651,140 +3682,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="25">
+        <v>43800</v>
+      </c>
+      <c r="C1" s="25">
+        <v>44166</v>
+      </c>
+      <c r="D1" s="25">
+        <v>44531</v>
+      </c>
+      <c r="E1" s="25">
+        <v>44896</v>
+      </c>
+      <c r="F1" s="25">
+        <v>45261</v>
+      </c>
+      <c r="G1" s="25">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="28">
-        <v>43800</v>
-      </c>
-      <c r="C1" s="28">
-        <v>44166</v>
-      </c>
-      <c r="D1" s="28">
-        <v>44531</v>
-      </c>
-      <c r="E1" s="28">
-        <v>44896</v>
-      </c>
-      <c r="F1" s="28">
-        <v>45261</v>
-      </c>
-      <c r="G1" s="28">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="C5" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="29" t="s">
+      <c r="F5" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="31">
+      <c r="B6" s="28">
         <v>236197769</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="28">
         <v>236197769</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="28">
         <v>236197769</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="28">
         <v>236197769</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="28">
         <v>236197769</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="28">
         <v>236197769</v>
       </c>
     </row>
@@ -3811,28 +3842,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -4695,16 +4726,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F31EC6D-279C-46C3-9647-3AC2DA2348E6}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="5.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="12"/>
+    <col min="2" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -4717,142 +4751,168 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>5</v>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="G1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B2" s="6">
-        <v>6.4000000000000001E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="C2" s="6">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="D2" s="13">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="E2" s="13">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="F2" s="6">
-        <v>6.8900000000000003E-2</v>
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="D2" s="11">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.31580000000000003</v>
+      </c>
+      <c r="F2" s="7">
+        <f>E2-B2</f>
+        <v>0.27180000000000004</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1.1699999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B3" s="6">
-        <v>4.3999999999999997E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C3" s="6">
-        <v>4.3099999999999999E-2</v>
-      </c>
-      <c r="D3" s="13">
-        <v>3.9E-2</v>
-      </c>
-      <c r="E3" s="13">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="F3" s="11">
-        <v>5.9700000000000003E-2</v>
-      </c>
-      <c r="G3" s="11"/>
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="D3" s="11">
+        <v>2.7699999999999999E-2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2.92E-2</v>
+      </c>
+      <c r="F3" s="7">
+        <f>E3-B3</f>
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="G3" s="6">
+        <v>4.36E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2020</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1.9E-2</v>
+        <v>2021</v>
+      </c>
+      <c r="B4" s="7">
+        <v>9.1499999999999998E-2</v>
       </c>
       <c r="C4" s="6">
-        <v>4.5199999999999997E-2</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="13">
-        <v>3.4500000000000003E-2</v>
-      </c>
-      <c r="F4" s="11">
-        <v>2.7699999999999999E-2</v>
+        <v>0.10060000000000001</v>
+      </c>
+      <c r="D4" s="11">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>-0.1193</v>
+      </c>
+      <c r="F4" s="7">
+        <f>E4-B4</f>
+        <v>-0.21079999999999999</v>
+      </c>
+      <c r="G4" s="6">
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B5" s="7">
-        <v>9.1499999999999998E-2</v>
+        <v>0.13650000000000001</v>
       </c>
       <c r="C5" s="6">
-        <v>0.10060000000000001</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="F5" s="11">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="G5" s="11"/>
+        <v>5.79E-2</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.1237</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="F5" s="7">
+        <f>E5-B5</f>
+        <v>-8.9600000000000013E-2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3.04E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B6" s="7">
-        <v>0.13650000000000001</v>
+        <v>0.11650000000000001</v>
       </c>
       <c r="C6" s="6">
-        <v>5.79E-2</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0.1237</v>
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.1305</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.2228</v>
+      </c>
+      <c r="F6" s="7">
+        <f>E6-B6</f>
+        <v>0.10629999999999999</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2.92E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B7" s="7">
-        <v>0.11650000000000001</v>
+        <v>0.1215</v>
       </c>
       <c r="C7" s="6">
-        <v>4.6199999999999998E-2</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0.1305</v>
-      </c>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2024</v>
-      </c>
-      <c r="B8" s="7">
-        <v>0.1215</v>
-      </c>
-      <c r="C8" s="6">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="F8" s="11">
+      <c r="D7" s="11">
         <v>0.1087</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G10" s="11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G12" s="11"/>
+      <c r="E7" s="6">
+        <v>-0.1036</v>
+      </c>
+      <c r="F7" s="7">
+        <f>E7-B7</f>
+        <v>-0.22509999999999999</v>
+      </c>
+      <c r="G7" s="6">
+        <v>3.49E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="11"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Dados_VIVA3.xlsx
+++ b/Dados_VIVA3.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicadagavea-my.sharepoint.com/personal/sofia_heisler_vivsaude_com_br/Documents/TCC SOFIA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="324" documentId="8_{B1A79B50-4BF3-4540-B8E6-4482084FB523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8C729A9-0E3B-40FB-BA5D-2187ABF396CD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{2257CE08-CE92-409E-9F47-D262134BADA7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BP_VIVA3" sheetId="2" r:id="rId1"/>
@@ -29,7 +28,7 @@
     <definedName name="Pública">OFFSET([1]Dados!$C$5,0,0,COUNTA([1]Dados!$C:$C))</definedName>
     <definedName name="Total">OFFSET([1]Dados!$D$5,0,0,COUNTA([1]Dados!$D:$D))</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,18 +48,27 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={0CE69A24-C92A-421A-ABFF-7CB9ED6964E7}</author>
   </authors>
   <commentList>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{0CE69A24-C92A-421A-ABFF-7CB9ED6964E7}">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">[Comentário encadeado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Capital de giro negativo acontece quando a empresa recebe dos clientes mais rápido do que paga aos fornecedores, ou quando tem pouca necessidade de manter estoques ou contas a receber. ( gera caixa para o negócio)
 </t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -68,17 +76,26 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={5F0C19B1-2D57-4234-A7B6-FEFAE7FBEACC}</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{5F0C19B1-2D57-4234-A7B6-FEFAE7FBEACC}">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
-        <t>[Comentário encadeado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     NREC + Aluguel (IFRS16)</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -86,7 +103,7 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={E185EC40-4787-4E1F-AE43-227A6682F1A7}</author>
     <author>tc={A287ADD2-418F-4328-9C3D-164EA5824DA7}</author>
@@ -95,44 +112,89 @@
     <author>tc={4A6DCCD8-D6C7-4F40-ADAC-B1028FC27221}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E185EC40-4787-4E1F-AE43-227A6682F1A7}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
-        <t>[Comentário encadeado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Fonte: BOLETIM FOCUS</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{A287ADD2-418F-4328-9C3D-164EA5824DA7}">
+    <comment ref="B1" authorId="1" shapeId="0">
       <text>
-        <t>[Comentário encadeado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Fonte: banco central</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{19968543-96E7-41AE-B447-D71BCDBE9FB9}">
+    <comment ref="C1" authorId="2" shapeId="0">
       <text>
-        <t>[Comentário encadeado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     acumulado</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="3" shapeId="0" xr:uid="{0B35241F-FA57-41D3-8856-35984CA77DD9}">
+    <comment ref="F1" authorId="3" shapeId="0">
       <text>
-        <t>[Comentário encadeado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Fonte: B3</t>
+        </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="4" shapeId="0" xr:uid="{4A6DCCD8-D6C7-4F40-ADAC-B1028FC27221}">
+    <comment ref="G1" authorId="4" shapeId="0">
       <text>
-        <t>[Comentário encadeado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Último boletim focus de cada ano</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -140,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="96">
   <si>
     <t>Ano</t>
   </si>
@@ -343,9 +405,6 @@
     <t xml:space="preserve">Caixa das atividade de financiamento </t>
   </si>
   <si>
-    <t>AUMENTO (REDUÇÃO) DE CAIXA E EQUIVALENTE DE CAIXA</t>
-  </si>
-  <si>
     <t>Lucro Líquido Ajustado</t>
   </si>
   <si>
@@ -424,22 +483,25 @@
     <t>IBOV</t>
   </si>
   <si>
-    <t>Prêmio de Rsico</t>
-  </si>
-  <si>
     <t>PIB Expectativa</t>
+  </si>
+  <si>
+    <t>Prêmio de Risco</t>
+  </si>
+  <si>
+    <t>FCLE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,12 +526,6 @@
       <sz val="9"/>
       <color rgb="FF0015AA"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
@@ -583,36 +639,36 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -643,7 +699,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Dados"/>
@@ -1220,7 +1276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E278E65-DD61-446C-B5E0-DE74741045E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2057,7 +2113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFAC9C7-A185-40AA-AB34-4B2BA0132BC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2694,11 +2750,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33F5E72-AC80-404C-8DE3-3BD1B1DDDB6D}">
-  <dimension ref="A1:AB24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2729,11 +2785,12 @@
     <col min="24" max="24" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2744,7 +2801,7 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
         <v>33</v>
@@ -2813,13 +2870,16 @@
         <v>65</v>
       </c>
       <c r="AA1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="AB1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -2897,13 +2957,16 @@
         <v>7084</v>
       </c>
       <c r="AA2" s="14">
-        <v>-37398.514320000002</v>
-      </c>
-      <c r="AB2" s="14">
         <v>37399</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB2">
+        <v>532203</v>
+      </c>
+      <c r="AC2">
+        <v>-424577.94887000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -2981,13 +3044,16 @@
         <v>0</v>
       </c>
       <c r="AA3" s="14">
-        <v>69944.201763466059</v>
-      </c>
-      <c r="AB3" s="14">
         <v>-69944</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB3">
+        <v>-218015</v>
+      </c>
+      <c r="AC3">
+        <v>454319.53605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -3065,13 +3131,16 @@
         <v>985.94557000000032</v>
       </c>
       <c r="AA4" s="14">
-        <v>-39977.287671534403</v>
-      </c>
-      <c r="AB4" s="14">
         <v>39977</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB4">
+        <v>134713.94777999996</v>
+      </c>
+      <c r="AC4">
+        <v>65675.718889275624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -3149,13 +3218,16 @@
         <v>4144.2771300000031</v>
       </c>
       <c r="AA5" s="14">
-        <v>351063.84311999904</v>
-      </c>
-      <c r="AB5" s="14">
         <v>-351063.84311999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB5">
+        <v>207189.78321000014</v>
+      </c>
+      <c r="AC5">
+        <v>110056.7510063494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -3233,13 +3305,16 @@
         <v>21612</v>
       </c>
       <c r="AA6" s="14">
-        <v>41474.553912001007</v>
-      </c>
-      <c r="AB6" s="14">
         <v>-41475.029169999994</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB6">
+        <v>-2414.4411523106101</v>
+      </c>
+      <c r="AC6">
+        <v>160123.85354641645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -3317,13 +3392,16 @@
         <v>18350.65121</v>
       </c>
       <c r="AA7" s="14">
-        <v>-151731.77948578779</v>
-      </c>
-      <c r="AB7" s="14">
         <v>151731.77890000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB7">
+        <v>61922.154739720339</v>
+      </c>
+      <c r="AC7">
+        <v>201087.85237776849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -3401,13 +3479,16 @@
         <v>-19298.091170000003</v>
       </c>
       <c r="AA8" s="14">
-        <v>-165552.29227861256</v>
-      </c>
-      <c r="AB8" s="14">
         <v>165551.62155999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB8">
+        <v>286648.95352319285</v>
+      </c>
+      <c r="AC8">
+        <v>44797.686155022413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2023</v>
       </c>
@@ -3487,13 +3568,16 @@
         <v>-5400.3492699999997</v>
       </c>
       <c r="AA9" s="14">
-        <v>61456.78815773633</v>
-      </c>
-      <c r="AB9" s="14">
         <v>-61459.228900000016</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB9">
+        <v>348356.03011088824</v>
+      </c>
+      <c r="AC9">
+        <v>-18276.170090023661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2024</v>
       </c>
@@ -3573,90 +3657,103 @@
         <v>-12229</v>
       </c>
       <c r="AA10" s="14">
-        <v>56658</v>
-      </c>
-      <c r="AB10" s="14">
         <v>-56658</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB10">
+        <v>524473.75003850856</v>
+      </c>
+      <c r="AC10">
+        <v>144201.86294212972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="C13" s="16"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="23"/>
       <c r="E14" s="15"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AA14" s="16"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="23"/>
       <c r="E15" s="15"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AA15" s="16"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="23"/>
       <c r="E16" s="15"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="AA16" s="16"/>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="23"/>
       <c r="E17" s="15"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="AA17" s="16"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="23"/>
       <c r="E18" s="15"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="AA18" s="16"/>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="23"/>
       <c r="E19" s="15"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="AA19" s="16"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="23"/>
       <c r="E20" s="15"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="AA20" s="16"/>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="23"/>
       <c r="E21" s="15"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="AA21" s="16"/>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="23"/>
       <c r="E22" s="15"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="AA22" s="16"/>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="D24" s="5"/>
     </row>
   </sheetData>
@@ -3665,7 +3762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FC6D65-57AB-4216-9786-986376818DD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3683,7 +3780,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="25">
         <v>43800</v>
@@ -3706,99 +3803,99 @@
     </row>
     <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>91</v>
-      </c>
       <c r="C2" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="26" t="s">
         <v>70</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="26" t="s">
+      <c r="G3" s="26" t="s">
         <v>73</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>83</v>
-      </c>
       <c r="F4" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="26" t="s">
         <v>75</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="26" t="s">
+      <c r="G5" s="26" t="s">
         <v>78</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="28">
         <v>236197769</v>
@@ -3825,11 +3922,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B584CC-0EE0-4380-A041-930CE3A8AB8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4725,11 +4822,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F31EC6D-279C-46C3-9647-3AC2DA2348E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4755,13 +4852,13 @@
         <v>12</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F1" t="s">
         <v>94</v>
       </c>
       <c r="G1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4781,7 +4878,7 @@
         <v>0.31580000000000003</v>
       </c>
       <c r="F2" s="7">
-        <f>E2-B2</f>
+        <f t="shared" ref="F2:F7" si="0">E2-B2</f>
         <v>0.27180000000000004</v>
       </c>
       <c r="G2" s="6">
@@ -4805,7 +4902,7 @@
         <v>2.92E-2</v>
       </c>
       <c r="F3" s="7">
-        <f>E3-B3</f>
+        <f t="shared" si="0"/>
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="G3" s="6">
@@ -4829,7 +4926,7 @@
         <v>-0.1193</v>
       </c>
       <c r="F4" s="7">
-        <f>E4-B4</f>
+        <f t="shared" si="0"/>
         <v>-0.21079999999999999</v>
       </c>
       <c r="G4" s="6">
@@ -4853,7 +4950,7 @@
         <v>4.6899999999999997E-2</v>
       </c>
       <c r="F5" s="7">
-        <f>E5-B5</f>
+        <f t="shared" si="0"/>
         <v>-8.9600000000000013E-2</v>
       </c>
       <c r="G5" s="6">
@@ -4877,7 +4974,7 @@
         <v>0.2228</v>
       </c>
       <c r="F6" s="7">
-        <f>E6-B6</f>
+        <f t="shared" si="0"/>
         <v>0.10629999999999999</v>
       </c>
       <c r="G6" s="6">
@@ -4901,7 +4998,7 @@
         <v>-0.1036</v>
       </c>
       <c r="F7" s="7">
-        <f>E7-B7</f>
+        <f t="shared" si="0"/>
         <v>-0.22509999999999999</v>
       </c>
       <c r="G7" s="6">

--- a/Dados_VIVA3.xlsx
+++ b/Dados_VIVA3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clinicadagavea-my.sharepoint.com/personal/sofia_heisler_vivsaude_com_br/Documents/TCC SOFIA/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="380" documentId="8_{B1A79B50-4BF3-4540-B8E6-4482084FB523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96BCD699-B0E3-4098-8CC2-4D3C63C9BA1F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{2257CE08-CE92-409E-9F47-D262134BADA7}"/>
   </bookViews>
   <sheets>
     <sheet name="BP_VIVA3" sheetId="2" r:id="rId1"/>
@@ -48,27 +49,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={0CE69A24-C92A-421A-ABFF-7CB9ED6964E7}</author>
   </authors>
   <commentList>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{0CE69A24-C92A-421A-ABFF-7CB9ED6964E7}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Comentário encadeado]
+        <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Capital de giro negativo acontece quando a empresa recebe dos clientes mais rápido do que paga aos fornecedores, ou quando tem pouca necessidade de manter estoques ou contas a receber. ( gera caixa para o negócio)
 </t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -76,26 +68,17 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={5F0C19B1-2D57-4234-A7B6-FEFAE7FBEACC}</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{5F0C19B1-2D57-4234-A7B6-FEFAE7FBEACC}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Comentário encadeado]
+        <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     NREC + Aluguel (IFRS16)</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -103,46 +86,28 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={2E495D30-762C-4C09-9512-E7FFBA540644}</author>
     <author>tc={0DF445F4-25CB-4ECD-B044-B4DD50EFDBAB}</author>
   </authors>
   <commentList>
-    <comment ref="AC1" authorId="0" shapeId="0">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{2E495D30-762C-4C09-9512-E7FFBA540644}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">[Comentário encadeado]
+        <t xml:space="preserve">[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     FCLD = NOPAT + Depreciação – Investimentos (CapEx) – Variação no Capital de Giro 
 Responder:
     quanto de caixa a operação da empresa gera após pagar impostos e reinvestir no negócio (Capex e giro) </t>
-        </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="1" shapeId="0">
+    <comment ref="AD1" authorId="1" shapeId="0" xr:uid="{0DF445F4-25CB-4ECD-B044-B4DD50EFDBAB}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Comentário encadeado]
+        <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     =Lucro Líquido+Depreciação/Amortizacao−Capex−Variaçao no Capital de Giro+Dívida Líquida Obtida</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -150,98 +115,77 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={E185EC40-4787-4E1F-AE43-227A6682F1A7}</author>
     <author>tc={A287ADD2-418F-4328-9C3D-164EA5824DA7}</author>
     <author>tc={19968543-96E7-41AE-B447-D71BCDBE9FB9}</author>
     <author>tc={0B35241F-FA57-41D3-8856-35984CA77DD9}</author>
     <author>tc={4A6DCCD8-D6C7-4F40-ADAC-B1028FC27221}</author>
+    <author>tc={2B62CC3B-478E-43C1-A216-116F2A992B5A}</author>
+    <author>tc={0680BDBB-83D6-48D1-B568-41F5AB9EC69A}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E185EC40-4787-4E1F-AE43-227A6682F1A7}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Comentário encadeado]
+        <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Fonte: BOLETIM FOCUS</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="1" shapeId="0">
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{A287ADD2-418F-4328-9C3D-164EA5824DA7}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Comentário encadeado]
+        <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Fonte: banco central</t>
-        </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="2" shapeId="0">
+    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{19968543-96E7-41AE-B447-D71BCDBE9FB9}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Comentário encadeado]
+        <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     acumulado</t>
-        </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="3" shapeId="0">
+    <comment ref="F1" authorId="3" shapeId="0" xr:uid="{0B35241F-FA57-41D3-8856-35984CA77DD9}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Comentário encadeado]
+        <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
-    Fonte: B3</t>
-        </r>
+    Fonte: B3
+Responder:
+    Esse prêmio de risco é calculado ex post</t>
       </text>
     </comment>
-    <comment ref="G1" authorId="4" shapeId="0">
+    <comment ref="G1" authorId="4" shapeId="0" xr:uid="{4A6DCCD8-D6C7-4F40-ADAC-B1028FC27221}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Comentário encadeado]
+        <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Último boletim focus de cada ano</t>
-        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="5" shapeId="0" xr:uid="{2B62CC3B-478E-43C1-A216-116F2A992B5A}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Essa abordagem ajusta a taxa dos títulos do governo brasileiro pela probabilidade de inadimplência soberana, refletida no spread de default </t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="6" shapeId="0" xr:uid="{0680BDBB-83D6-48D1-B568-41F5AB9EC69A}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Fonte: Damodaran
+Responder:
+    Esses valores são calculados adicionando um prêmio de risco de mercado maduro (geralmente baseado no mercado dos EUA) a um prêmio de risco-país específico para o Brasil. 
+Responder:
+    prêmio de risco implícito, ou seja, o retorno exigido pelos investidores para investir em ações, estimado a partir dos preços atuais e dos fluxos de caixa futuros esperados do mercado. </t>
       </text>
     </comment>
   </commentList>
@@ -249,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="106">
   <si>
     <t>Ano</t>
   </si>
@@ -533,9 +477,6 @@
     <t>IBOV</t>
   </si>
   <si>
-    <t>Prêmio de Rsico</t>
-  </si>
-  <si>
     <t>PIB Expectativa</t>
   </si>
   <si>
@@ -552,12 +493,30 @@
   </si>
   <si>
     <t>Capital de Giro</t>
+  </si>
+  <si>
+    <t>Prêmio de Risco</t>
+  </si>
+  <si>
+    <t>Taxa do Título do Governo em R$</t>
+  </si>
+  <si>
+    <t>Spread de Default</t>
+  </si>
+  <si>
+    <t>Taxa Livre de Risco (em R$)</t>
+  </si>
+  <si>
+    <t>ERP implícito</t>
+  </si>
+  <si>
+    <t>Retorno esperado do IBOV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -762,7 +721,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Dados"/>
@@ -1346,14 +1305,29 @@
   <threadedComment ref="F1" dT="2025-04-18T21:57:24.60" personId="{D8191FFE-1D62-4EA7-829B-8544500A72DE}" id="{0B35241F-FA57-41D3-8856-35984CA77DD9}">
     <text>Fonte: B3</text>
   </threadedComment>
+  <threadedComment ref="F1" dT="2025-05-25T19:22:20.15" personId="{D8191FFE-1D62-4EA7-829B-8544500A72DE}" id="{E35D8C31-6F51-44E5-BCA1-1ED8B07E26E1}" parentId="{0B35241F-FA57-41D3-8856-35984CA77DD9}">
+    <text>Esse prêmio de risco é calculado ex post</text>
+  </threadedComment>
   <threadedComment ref="G1" dT="2025-04-18T22:36:28.22" personId="{D8191FFE-1D62-4EA7-829B-8544500A72DE}" id="{4A6DCCD8-D6C7-4F40-ADAC-B1028FC27221}">
     <text>Último boletim focus de cada ano</text>
+  </threadedComment>
+  <threadedComment ref="J1" dT="2025-05-25T20:00:41.90" personId="{D8191FFE-1D62-4EA7-829B-8544500A72DE}" id="{2B62CC3B-478E-43C1-A216-116F2A992B5A}">
+    <text xml:space="preserve">Essa abordagem ajusta a taxa dos títulos do governo brasileiro pela probabilidade de inadimplência soberana, refletida no spread de default </text>
+  </threadedComment>
+  <threadedComment ref="K1" dT="2025-05-25T19:59:51.47" personId="{D8191FFE-1D62-4EA7-829B-8544500A72DE}" id="{0680BDBB-83D6-48D1-B568-41F5AB9EC69A}">
+    <text>Fonte: Damodaran</text>
+  </threadedComment>
+  <threadedComment ref="K1" dT="2025-05-25T20:01:59.51" personId="{D8191FFE-1D62-4EA7-829B-8544500A72DE}" id="{868B7480-6D98-48DF-8E56-2D0774088974}" parentId="{0680BDBB-83D6-48D1-B568-41F5AB9EC69A}">
+    <text xml:space="preserve">Esses valores são calculados adicionando um prêmio de risco de mercado maduro (geralmente baseado no mercado dos EUA) a um prêmio de risco-país específico para o Brasil. </text>
+  </threadedComment>
+  <threadedComment ref="K1" dT="2025-05-25T20:12:30.56" personId="{D8191FFE-1D62-4EA7-829B-8544500A72DE}" id="{844A11D7-BAB3-430D-95B9-34583FA771AE}" parentId="{0680BDBB-83D6-48D1-B568-41F5AB9EC69A}">
+    <text xml:space="preserve">prêmio de risco implícito, ou seja, o retorno exigido pelos investidores para investir em ações, estimado a partir dos preços atuais e dos fluxos de caixa futuros esperados do mercado. </text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E278E65-DD61-446C-B5E0-DE74741045E7}">
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2190,11 +2164,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFAC9C7-A185-40AA-AB34-4B2BA0132BC4}">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2278,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="S1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T1" s="2"/>
       <c r="U1" s="1"/>
@@ -2867,7 +2841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33F5E72-AC80-404C-8DE3-3BD1B1DDDB6D}">
   <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
@@ -2996,16 +2970,16 @@
         <v>48</v>
       </c>
       <c r="AC1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD1" t="s">
         <v>96</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>97</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>98</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
@@ -3954,7 +3928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FC6D65-57AB-4216-9786-986376818DD7}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4114,7 +4088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B584CC-0EE0-4380-A041-930CE3A8AB8A}">
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -5014,11 +4988,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F31EC6D-279C-46C3-9647-3AC2DA2348E6}">
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5028,9 +5002,12 @@
     <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5047,13 +5024,28 @@
         <v>93</v>
       </c>
       <c r="F1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s">
         <v>94</v>
       </c>
-      <c r="G1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -5070,14 +5062,27 @@
         <v>0.31580000000000003</v>
       </c>
       <c r="F2" s="7">
-        <f t="shared" ref="F2:F7" si="0">E2-B2</f>
+        <f>E2-B2</f>
         <v>0.27180000000000004</v>
       </c>
       <c r="G2" s="6">
         <v>1.17E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="7">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="I2" s="7">
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="J2" s="7">
+        <f>H2-I2</f>
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="K2" s="7">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -5094,14 +5099,31 @@
         <v>2.92E-2</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" si="0"/>
+        <f>E3-B3</f>
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="G3" s="6">
         <v>4.36E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="7">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="I3" s="7">
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="J3" s="7">
+        <f t="shared" ref="J3:J7" si="0">H3-I3</f>
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="K3" s="7">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="L3" s="7">
+        <f>K3+J3</f>
+        <v>0.12759999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -5118,14 +5140,31 @@
         <v>-0.1193</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F4:F7" si="1">E4-B4</f>
         <v>-0.21079999999999999</v>
       </c>
       <c r="G4" s="6">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="J4" s="7">
+        <f t="shared" si="0"/>
+        <v>4.3500000000000011E-2</v>
+      </c>
+      <c r="K4" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="L4" s="7">
+        <f t="shared" ref="L4:L7" si="2">K4+J4</f>
+        <v>0.12150000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -5142,14 +5181,31 @@
         <v>4.6899999999999997E-2</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8.9600000000000013E-2</v>
       </c>
       <c r="G5" s="6">
         <v>3.04E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="0"/>
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="K5" s="7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.1356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -5166,14 +5222,31 @@
         <v>0.2228</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10629999999999999</v>
       </c>
       <c r="G6" s="6">
         <v>2.92E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K6" s="7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="2"/>
+        <v>0.14200000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2024</v>
       </c>
@@ -5190,17 +5263,34 @@
         <v>-0.1036</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.22509999999999999</v>
       </c>
       <c r="G7" s="6">
         <v>3.49E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="7">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="0"/>
+        <v>7.669999999999999E-2</v>
+      </c>
+      <c r="K7" s="7">
+        <v>7.6700000000000004E-2</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" si="2"/>
+        <v>0.15339999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E9" s="11"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E11" s="11"/>
     </row>
   </sheetData>
